--- a/temp_doc/DATA KELAS PPG.xlsx
+++ b/temp_doc/DATA KELAS PPG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693BC922-EB52-0048-8E4B-CA6F5F249315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1CA1D4-7C2C-3B4E-A9CB-A8D16D3D1A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
   </bookViews>
@@ -49,7 +49,7 @@
     <t>TJKT</t>
   </si>
   <si>
-    <t>XI TJKT 1 PPG</t>
+    <t>XI TJKT</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
